--- a/Matrikel_Punkte.xlsx
+++ b/Matrikel_Punkte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oli/Documents/GitHub/private_fun/grader/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oli/Documents/GitHub/grader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BED58E0-AFAA-FE47-8AA1-D46692A5E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9C8F7D-E8AD-E644-8C8D-0949852A82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20960" yWindow="2000" windowWidth="30240" windowHeight="17540" xr2:uid="{4FD1201D-0FAE-B04A-AE1B-9F7A47421518}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>300012</v>
+        <v>300004</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>300014</v>
+        <v>300003</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>300015</v>
+        <v>300002</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -507,270 +507,79 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>300016</v>
-      </c>
-      <c r="B7">
-        <v>6.5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>300017</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>300018</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>300019</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>300020</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>300021</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>300022</v>
-      </c>
-      <c r="B13">
-        <v>12.5</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>300023</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>300024</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>300025</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>2.5</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>300026</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0.5</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>300027</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>300028</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1.5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>300029</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>300030</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>2.5</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>300031</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>2.5</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>300032</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>2.5</v>
-      </c>
-      <c r="D23">
-        <v>7.5</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>300033</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <v>6.5</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>300034</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
